--- a/FibPrimeGaps.xlsx
+++ b/FibPrimeGaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhantdoshi/Documents/Competitions/ST Yau Research Paper/2020/Math/ST-Yau-Math-031/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78147C72-9B7F-7444-94C6-F401E3EA19F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5101C40B-0A08-D846-B76E-3A58A7EABD79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A65D2994-66A2-5346-839E-C7A732D7265C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Fib Prime Differences</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>ln(gaps)</t>
-  </si>
-  <si>
-    <t>3571035606419098607209077741390634544455699265828433067940419974763010711027675704833435635185100078003041954440805185626309000273864989339446192101928567683526834688317544232342179785257659210407472913166815765568614907731352148617828777165608796863682661173653518849263937754319251168963223411300758802871692449806988379419312475160101016317043499635834003619108099258477213008027417055194123065229</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -716,19 +713,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21">
-        <v>2.0747194439999999</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FibPrimeGaps.xlsx
+++ b/FibPrimeGaps.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhantdoshi/Documents/Competitions/ST Yau Research Paper/2020/Math/ST-Yau-Math-031/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5101C40B-0A08-D846-B76E-3A58A7EABD79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB4F84-3AF1-8C46-A11A-B370D5244507}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A65D2994-66A2-5346-839E-C7A732D7265C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{A65D2994-66A2-5346-839E-C7A732D7265C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gaps" sheetId="1" r:id="rId1"/>
-    <sheet name="Gaps of Indices" sheetId="2" r:id="rId2"/>
+    <sheet name="Fibonacci Primes" sheetId="3" r:id="rId1"/>
+    <sheet name="Gaps" sheetId="1" r:id="rId2"/>
+    <sheet name="Gaps of Indices" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Fib Prime Differences</t>
   </si>
@@ -53,6 +54,12 @@
   </si>
   <si>
     <t>ln(gaps)</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
   </si>
 </sst>
 </file>
@@ -88,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,6 +412,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79337368-72E6-6742-907D-E03F4A27BDCB}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8.9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.33</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.87</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.14</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.33</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.97</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9.92</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="C17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="C18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="C19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="C20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="C21">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="C22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="C23">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="C25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="C26">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="C28">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78143DF-5E88-A54B-AEB6-E85E5D07F7EF}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -413,7 +859,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -450,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">LOG(B3)</f>
+        <f t="shared" ref="C3:C20" si="0">LOG(B3)</f>
         <v>0.3010299956639812</v>
       </c>
       <c r="D3">
@@ -720,12 +1167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8F0282-3BFE-7B4E-9328-427AC5995A3B}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -755,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f>B3-B2</f>
+        <f t="shared" ref="C2:C33" si="0">B3-B2</f>
         <v>1</v>
       </c>
       <c r="D2">
@@ -771,11 +1218,11 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>B4-B3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D51" si="0">LN(C3)</f>
+        <f t="shared" ref="D3:D51" si="1">LN(C3)</f>
         <v>0</v>
       </c>
     </row>
@@ -787,11 +1234,11 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>B5-B4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -803,11 +1250,11 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <f>B6-B5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -819,11 +1266,11 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <f>B7-B6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -835,11 +1282,11 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <f>B8-B7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -851,11 +1298,11 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <f>B9-B8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.791759469228055</v>
       </c>
     </row>
@@ -867,11 +1314,11 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <f>B10-B9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.791759469228055</v>
       </c>
     </row>
@@ -883,11 +1330,11 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <f>B11-B10</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6390573296152584</v>
       </c>
     </row>
@@ -899,11 +1346,11 @@
         <v>43</v>
       </c>
       <c r="C11">
-        <f>B12-B11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -915,11 +1362,11 @@
         <v>47</v>
       </c>
       <c r="C12">
-        <f>B13-B12</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5835189384561099</v>
       </c>
     </row>
@@ -931,11 +1378,11 @@
         <v>83</v>
       </c>
       <c r="C13">
-        <f>B14-B13</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8712010109078911</v>
       </c>
     </row>
@@ -947,11 +1394,11 @@
         <v>131</v>
       </c>
       <c r="C14">
-        <f>B15-B14</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.791759469228055</v>
       </c>
     </row>
@@ -963,11 +1410,11 @@
         <v>137</v>
       </c>
       <c r="C15">
-        <f>B16-B15</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4026773818722793</v>
       </c>
     </row>
@@ -979,11 +1426,11 @@
         <v>359</v>
       </c>
       <c r="C16">
-        <f>B17-B16</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2766661190160553</v>
       </c>
     </row>
@@ -995,11 +1442,11 @@
         <v>431</v>
       </c>
       <c r="C17">
-        <f>B18-B17</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -1011,11 +1458,11 @@
         <v>433</v>
       </c>
       <c r="C18">
-        <f>B19-B18</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7725887222397811</v>
       </c>
     </row>
@@ -1027,11 +1474,11 @@
         <v>449</v>
       </c>
       <c r="C19">
-        <f>B20-B19</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0943445622221004</v>
       </c>
     </row>
@@ -1043,11 +1490,11 @@
         <v>509</v>
       </c>
       <c r="C20">
-        <f>B21-B20</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0943445622221004</v>
       </c>
     </row>
@@ -1059,11 +1506,11 @@
         <v>569</v>
       </c>
       <c r="C21">
-        <f>B22-B21</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -1075,11 +1522,11 @@
         <v>571</v>
       </c>
       <c r="C22">
-        <f>B23-B22</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7832240163360371</v>
       </c>
     </row>
@@ -1091,11 +1538,11 @@
         <v>2971</v>
       </c>
       <c r="C23">
-        <f>B24-B23</f>
+        <f t="shared" si="0"/>
         <v>1752</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4685132714963371</v>
       </c>
     </row>
@@ -1107,11 +1554,11 @@
         <v>4723</v>
       </c>
       <c r="C24">
-        <f>B25-B24</f>
+        <f t="shared" si="0"/>
         <v>664</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4982821494764336</v>
       </c>
     </row>
@@ -1123,11 +1570,11 @@
         <v>5387</v>
       </c>
       <c r="C25">
-        <f>B26-B25</f>
+        <f t="shared" si="0"/>
         <v>3924</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2748668206852543</v>
       </c>
     </row>
@@ -1139,11 +1586,11 @@
         <v>9311</v>
       </c>
       <c r="C26">
-        <f>B27-B26</f>
+        <f t="shared" si="0"/>
         <v>366</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9026333334013659</v>
       </c>
     </row>
@@ -1155,11 +1602,11 @@
         <v>9677</v>
       </c>
       <c r="C27">
-        <f>B28-B27</f>
+        <f t="shared" si="0"/>
         <v>4754</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4667416479201396</v>
       </c>
     </row>
@@ -1171,11 +1618,11 @@
         <v>14431</v>
       </c>
       <c r="C28">
-        <f>B29-B28</f>
+        <f t="shared" si="0"/>
         <v>11130</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.31739944426959</v>
       </c>
     </row>
@@ -1187,11 +1634,11 @@
         <v>25561</v>
       </c>
       <c r="C29">
-        <f>B30-B29</f>
+        <f t="shared" si="0"/>
         <v>5196</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5556443777904896</v>
       </c>
     </row>
@@ -1203,11 +1650,11 @@
         <v>30757</v>
       </c>
       <c r="C30">
-        <f>B31-B30</f>
+        <f t="shared" si="0"/>
         <v>5242</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5644583838833519</v>
       </c>
     </row>
@@ -1219,11 +1666,11 @@
         <v>35999</v>
       </c>
       <c r="C31">
-        <f>B32-B31</f>
+        <f t="shared" si="0"/>
         <v>1512</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3211885567394779</v>
       </c>
     </row>
@@ -1235,11 +1682,11 @@
         <v>37511</v>
       </c>
       <c r="C32">
-        <f>B33-B32</f>
+        <f t="shared" si="0"/>
         <v>13322</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4971720829731243</v>
       </c>
     </row>
@@ -1251,11 +1698,11 @@
         <v>50833</v>
       </c>
       <c r="C33">
-        <f>B34-B33</f>
+        <f t="shared" si="0"/>
         <v>31006</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.341936013126308</v>
       </c>
     </row>
@@ -1267,11 +1714,11 @@
         <v>81839</v>
       </c>
       <c r="C34">
-        <f>B35-B34</f>
+        <f t="shared" ref="C34:C65" si="2">B35-B34</f>
         <v>23072</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.046375040084676</v>
       </c>
     </row>
@@ -1283,11 +1730,11 @@
         <v>104911</v>
       </c>
       <c r="C35">
-        <f>B36-B35</f>
+        <f t="shared" si="2"/>
         <v>25110</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.13102145215163</v>
       </c>
     </row>
@@ -1299,11 +1746,11 @@
         <v>130021</v>
       </c>
       <c r="C36">
-        <f>B37-B36</f>
+        <f t="shared" si="2"/>
         <v>18070</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8020083835862746</v>
       </c>
     </row>
@@ -1315,11 +1762,11 @@
         <v>148091</v>
       </c>
       <c r="C37">
-        <f>B38-B37</f>
+        <f t="shared" si="2"/>
         <v>53016</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.878349033768062</v>
       </c>
     </row>
@@ -1331,11 +1778,11 @@
         <v>201107</v>
       </c>
       <c r="C38">
-        <f>B39-B38</f>
+        <f t="shared" si="2"/>
         <v>196272</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.187256731272534</v>
       </c>
     </row>
@@ -1347,11 +1794,11 @@
         <v>397379</v>
       </c>
       <c r="C39">
-        <f>B40-B39</f>
+        <f t="shared" si="2"/>
         <v>36402</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.502378997170354</v>
       </c>
     </row>
@@ -1363,11 +1810,11 @@
         <v>433781</v>
       </c>
       <c r="C40">
-        <f>B41-B40</f>
+        <f t="shared" si="2"/>
         <v>156260</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.959276565550736</v>
       </c>
     </row>
@@ -1379,11 +1826,11 @@
         <v>590041</v>
       </c>
       <c r="C41">
-        <f>B42-B41</f>
+        <f t="shared" si="2"/>
         <v>3648</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2019343511942218</v>
       </c>
     </row>
@@ -1395,11 +1842,11 @@
         <v>593689</v>
       </c>
       <c r="C42">
-        <f>B43-B42</f>
+        <f t="shared" si="2"/>
         <v>11022</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3076485544431815</v>
       </c>
     </row>
@@ -1411,11 +1858,11 @@
         <v>604711</v>
       </c>
       <c r="C43">
-        <f>B44-B43</f>
+        <f t="shared" si="2"/>
         <v>326806</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.697122001652566</v>
       </c>
     </row>
@@ -1427,11 +1874,11 @@
         <v>931517</v>
       </c>
       <c r="C44">
-        <f>B45-B44</f>
+        <f t="shared" si="2"/>
         <v>118380</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.681655068244716</v>
       </c>
     </row>
@@ -1443,11 +1890,11 @@
         <v>1049897</v>
       </c>
       <c r="C45">
-        <f>B46-B45</f>
+        <f t="shared" si="2"/>
         <v>235710</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.370357514837977</v>
       </c>
     </row>
@@ -1459,11 +1906,11 @@
         <v>1285607</v>
       </c>
       <c r="C46">
-        <f>B47-B46</f>
+        <f t="shared" si="2"/>
         <v>350400</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.766830638044373</v>
       </c>
     </row>
@@ -1475,11 +1922,11 @@
         <v>1636007</v>
       </c>
       <c r="C47">
-        <f>B48-B47</f>
+        <f t="shared" si="2"/>
         <v>167052</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.026060420176568</v>
       </c>
     </row>
@@ -1491,11 +1938,11 @@
         <v>1803059</v>
       </c>
       <c r="C48">
-        <f>B49-B48</f>
+        <f t="shared" si="2"/>
         <v>165662</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.017704846999818</v>
       </c>
     </row>
@@ -1507,11 +1954,11 @@
         <v>1968721</v>
       </c>
       <c r="C49">
-        <f>B50-B49</f>
+        <f t="shared" si="2"/>
         <v>935632</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.74897751575797</v>
       </c>
     </row>
@@ -1523,11 +1970,11 @@
         <v>2904353</v>
       </c>
       <c r="C50">
-        <f>B51-B50</f>
+        <f t="shared" si="2"/>
         <v>340016</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.736747954308642</v>
       </c>
     </row>
@@ -1539,11 +1986,11 @@
         <v>3244369</v>
       </c>
       <c r="C51">
-        <f>B52-B51</f>
+        <f t="shared" si="2"/>
         <v>95998</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.472082636899623</v>
       </c>
     </row>
